--- a/biology/Médecine/Hôpital_des_armées_Calmette/Hôpital_des_armées_Calmette.xlsx
+++ b/biology/Médecine/Hôpital_des_armées_Calmette/Hôpital_des_armées_Calmette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_des_arm%C3%A9es_Calmette</t>
+          <t>Hôpital_des_armées_Calmette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital des armées Calmette ou hôpital maritime militaire de Lorient est un ancien centre hospitalier construit en 1932 et inauguré en 1936. Il fut fermé définitivement en 1998[1]. 
+L'hôpital des armées Calmette ou hôpital maritime militaire de Lorient est un ancien centre hospitalier construit en 1932 et inauguré en 1936. Il fut fermé définitivement en 1998. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_des_arm%C3%A9es_Calmette</t>
+          <t>Hôpital_des_armées_Calmette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital maritime militaire de Lorient remplaça l'ancien hôpital de Port-Louis et l'ancien hôpital maritime de l'enclos de la Marine, à Lorient, jugé trop petit et non apte à recevoir beaucoup de lits[2].
-Il fut détruit en partie pendant les bombardements de la Seconde Guerre mondiale mais fut remis en service dès 1945[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital maritime militaire de Lorient remplaça l'ancien hôpital de Port-Louis et l'ancien hôpital maritime de l'enclos de la Marine, à Lorient, jugé trop petit et non apte à recevoir beaucoup de lits.
+Il fut détruit en partie pendant les bombardements de la Seconde Guerre mondiale mais fut remis en service dès 1945.
 L'hôpital militaire de Lorient eut un grand prestige grâce à la culture militaire présente dans cette ville et grâce à la base sous-marine de Lorient.
-Le nom de cet hôpital vient d'Albert Calmette[3], nom du célèbre pasteurien, médecin de Marine, initiateur de la vaccination contre la tuberculose et auteur avec Guérin d'un vaccin[3].
-Beaucoup de projets ont été imaginés pour reconvertir le site[4].
+Le nom de cet hôpital vient d'Albert Calmette, nom du célèbre pasteurien, médecin de Marine, initiateur de la vaccination contre la tuberculose et auteur avec Guérin d'un vaccin.
+Beaucoup de projets ont été imaginés pour reconvertir le site.
 En définitive, l'immeuble a été intégré au Centre hospitalier Bretagne Sud (CHBS), au sein du site du Scorff, ouvert en 2 temps avec le pôle femme mère enfant en octobre 2007, les activités médicales, chirurgicales et médico-techniques en mars 2013.
 </t>
         </is>
